--- a/ry说明.xlsx
+++ b/ry说明.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
   <si>
     <t>共享公益纸巾机分润说明</t>
   </si>
@@ -55,6 +55,9 @@
     <t>ad_rate</t>
   </si>
   <si>
+    <t>视频广告系数</t>
+  </si>
+  <si>
     <t>轮播广告</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t>ad_carousel_rate</t>
   </si>
   <si>
+    <t>轮播广告系数</t>
+  </si>
+  <si>
     <t>二维码广告</t>
   </si>
   <si>
@@ -73,6 +79,9 @@
     <t>scan_rate</t>
   </si>
   <si>
+    <t>二维码广告系数</t>
+  </si>
+  <si>
     <t>推广收益</t>
   </si>
   <si>
@@ -85,12 +94,18 @@
     <t>prom_direct_rate</t>
   </si>
   <si>
+    <t>直接推广机子系数</t>
+  </si>
+  <si>
     <t>间推每台分润500元</t>
   </si>
   <si>
     <t>prom_indirect_rate</t>
   </si>
   <si>
+    <t>间接推广机子系数</t>
+  </si>
+  <si>
     <t>推广广告</t>
   </si>
   <si>
@@ -100,12 +115,18 @@
     <t>prom_paper_rate</t>
   </si>
   <si>
+    <t>推广二维码广告系数</t>
+  </si>
+  <si>
     <t>推广视频，轮播图广告收益  15%</t>
   </si>
   <si>
     <t>promotion_rate</t>
   </si>
   <si>
+    <t>推广广告系数</t>
+  </si>
+  <si>
     <t>服务收益</t>
   </si>
   <si>
@@ -113,6 +134,9 @@
   </si>
   <si>
     <t>serve_rate</t>
+  </si>
+  <si>
+    <t>服务收益系数</t>
   </si>
   <si>
     <t>服务网点</t>
@@ -230,10 +254,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -268,7 +292,120 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,42 +419,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -327,90 +428,13 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -456,49 +480,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,31 +630,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -552,73 +642,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,16 +779,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,11 +817,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -798,21 +846,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -834,15 +867,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -857,10 +881,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -869,133 +893,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1452,19 +1476,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="20.9083333333333" customWidth="1"/>
     <col min="2" max="2" width="16.3666666666667" customWidth="1"/>
     <col min="3" max="3" width="16.725" customWidth="1"/>
     <col min="4" max="4" width="51.125" customWidth="1"/>
     <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="6" max="6" width="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" spans="1:4">
@@ -1537,7 +1562,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" ht="14.25" spans="1:5">
+    <row r="10" ht="14.25" spans="1:6">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -1553,99 +1578,123 @@
       <c r="E10" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" ht="14.25" spans="1:5">
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:6">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" spans="1:5">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="1:6">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:6">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" spans="1:5">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:6">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" ht="28.5" spans="1:5">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:6">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" ht="14.25" spans="1:5">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" ht="14.25" spans="1:5">
+        <v>35</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:6">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:5">
       <c r="A18" s="8" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>9</v>
@@ -1654,7 +1703,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>12</v>
@@ -1664,41 +1713,41 @@
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="14.25" spans="1:5">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:5">
       <c r="A21" s="8"/>
       <c r="B21" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:5">
@@ -1706,23 +1755,23 @@
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" ht="14.25" spans="1:5">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:5">
@@ -1730,28 +1779,28 @@
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:5">
       <c r="A25" s="8"/>
       <c r="B25" s="12" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="8" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:5">
       <c r="A26" s="14" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>9</v>
@@ -1760,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>12</v>
@@ -1770,41 +1819,41 @@
       <c r="A27" s="18"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:5">
       <c r="A28" s="18"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="14.25" spans="1:5">
       <c r="A29" s="18"/>
       <c r="B29" s="15" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="14.25" spans="1:5">
@@ -1812,23 +1861,23 @@
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" ht="14.25" spans="1:5">
       <c r="A31" s="18"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" ht="14.25" spans="1:5">
@@ -1836,54 +1885,54 @@
       <c r="B32" s="15"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" ht="14.25" spans="1:5">
       <c r="A33" s="18"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" ht="14.25" spans="1:5">
       <c r="A34" s="18"/>
       <c r="B34" s="15" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" ht="14.25" spans="1:5">
       <c r="A35" s="20"/>
       <c r="B35" s="21" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C35" s="22"/>
       <c r="D35" s="15" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" ht="14.25" spans="1:5">
       <c r="A36" s="23" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B36" s="23" t="s">
         <v>9</v>
@@ -1892,7 +1941,7 @@
         <v>10</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E36" s="25"/>
     </row>
@@ -1900,10 +1949,10 @@
       <c r="A37" s="23"/>
       <c r="B37" s="23"/>
       <c r="C37" s="23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E37" s="25"/>
     </row>
@@ -1911,23 +1960,23 @@
       <c r="A38" s="23"/>
       <c r="B38" s="23"/>
       <c r="C38" s="23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E38" s="25"/>
     </row>
     <row r="39" ht="14.25" spans="1:5">
       <c r="A39" s="23"/>
       <c r="B39" s="23" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E39" s="25"/>
     </row>
@@ -1936,18 +1985,18 @@
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
       <c r="D40" s="23" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E40" s="25"/>
     </row>
-    <row r="41" ht="28.5" spans="1:5">
+    <row r="41" ht="14.25" spans="1:5">
       <c r="A41" s="23"/>
       <c r="B41" s="23"/>
       <c r="C41" s="23" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E41" s="25"/>
     </row>
@@ -1956,7 +2005,7 @@
       <c r="B42" s="23"/>
       <c r="C42" s="23"/>
       <c r="D42" s="23" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E42" s="25"/>
     </row>
@@ -1964,44 +2013,44 @@
       <c r="A43" s="23"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E43" s="25"/>
     </row>
     <row r="44" ht="14.25" spans="1:5">
       <c r="A44" s="23"/>
       <c r="B44" s="23" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C44" s="23"/>
       <c r="D44" s="23" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E44" s="25"/>
     </row>
     <row r="45" ht="14.25" spans="1:5">
       <c r="A45" s="23"/>
       <c r="B45" s="23" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C45" s="23"/>
       <c r="D45" s="23" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E45" s="25"/>
     </row>
     <row r="46" ht="14.25" spans="1:5">
       <c r="A46" s="27" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D46" s="29"/>
       <c r="E46" s="25"/>
@@ -2009,10 +2058,10 @@
     <row r="47" ht="14.25" spans="1:5">
       <c r="A47" s="3"/>
       <c r="B47" s="27" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D47" s="31"/>
       <c r="E47" s="25"/>
@@ -2020,10 +2069,10 @@
     <row r="48" spans="1:5">
       <c r="A48" s="3"/>
       <c r="B48" s="32" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D48" s="34"/>
       <c r="E48" s="25"/>

--- a/ry说明.xlsx
+++ b/ry说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="17616" windowHeight="6036"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="19404" windowHeight="6876"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="68">
   <si>
     <t>共享公益纸巾机分润说明</t>
   </si>
@@ -248,6 +248,10 @@
   </si>
   <si>
     <t>视频广告系数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>直推代理分润，代理费的15%</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -897,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1435,7 +1439,7 @@
         <v>50</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E43" s="17"/>
     </row>

--- a/ry说明.xlsx
+++ b/ry说明.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="19404" windowHeight="6876"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="22152" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="宏1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="144525"/>
+  <oleSize ref="A19:I38"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="82">
   <si>
     <t>共享公益纸巾机分润说明</t>
   </si>
@@ -65,9 +66,6 @@
     <t>ad_carousel_rate</t>
   </si>
   <si>
-    <t>轮播广告系数</t>
-  </si>
-  <si>
     <t>二维码广告</t>
   </si>
   <si>
@@ -77,9 +75,6 @@
     <t>scan_rate</t>
   </si>
   <si>
-    <t>二维码广告系数</t>
-  </si>
-  <si>
     <t>推广收益</t>
   </si>
   <si>
@@ -92,18 +87,12 @@
     <t>prom_direct_rate</t>
   </si>
   <si>
-    <t>直接推广机子系数</t>
-  </si>
-  <si>
     <t>间推每台分润500元</t>
   </si>
   <si>
     <t>prom_indirect_rate</t>
   </si>
   <si>
-    <t>间接推广机子系数</t>
-  </si>
-  <si>
     <t>推广广告</t>
   </si>
   <si>
@@ -113,18 +102,12 @@
     <t>prom_paper_rate</t>
   </si>
   <si>
-    <t>推广二维码广告系数</t>
-  </si>
-  <si>
     <t>推广视频，轮播图广告收益  15%</t>
   </si>
   <si>
     <t>promotion_rate</t>
   </si>
   <si>
-    <t>推广广告系数</t>
-  </si>
-  <si>
     <t>服务收益</t>
   </si>
   <si>
@@ -134,9 +117,6 @@
     <t>serve_rate</t>
   </si>
   <si>
-    <t>服务收益系数</t>
-  </si>
-  <si>
     <t>服务网点</t>
   </si>
   <si>
@@ -171,9 +151,6 @@
   </si>
   <si>
     <t>直推代理分润，代理费的15%</t>
-  </si>
-  <si>
-    <t>direct_agent_rate</t>
   </si>
   <si>
     <t>所属区域招商金额的7%</t>
@@ -247,11 +224,99 @@
     </r>
   </si>
   <si>
+    <t>直推代理分润，代理费的15%</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>间推机子分润</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>推广出纸收益</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮播广告系数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维码广告出纸收益</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>视频广告系数</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>直推代理分润，代理费的15%</t>
+    <t>直推机子分润</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>推广出纸收益</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>promotion_rate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>推广广告系数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务出纸收益</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>直推代理分润系数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>推广广告系数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公补贴</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>direct_agent_rate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_rate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_carousel_rate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prom_direct_rate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prom_indirect_rate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prom_paper_rate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>serve_rate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>subsidy_rate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维码广告出纸收益</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务出纸收益</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -330,13 +395,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,18 +564,8 @@
     <xf numFmtId="9" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -529,16 +584,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -559,25 +608,22 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -597,6 +643,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -898,11 +963,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -916,12 +994,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -946,7 +1024,7 @@
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2"/>
@@ -954,19 +1032,19 @@
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="23" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2"/>
@@ -974,22 +1052,22 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="24" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -999,15 +1077,15 @@
         <v>11</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>66</v>
+        <v>73</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1015,497 +1093,551 @@
         <v>14</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F12" t="s">
+      <c r="C13" s="24" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30" t="s">
+      <c r="D13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="E14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="3" t="s">
+      <c r="D15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E15" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="E16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="37"/>
+      <c r="B21" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A25" s="37"/>
+      <c r="B25" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="C25" s="43"/>
+      <c r="D25" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="F17" t="s">
+      <c r="E25" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A34" s="26"/>
+      <c r="B34" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A35" s="27"/>
+      <c r="B35" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="31" t="s">
+      <c r="F35" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A36" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C36" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="7" t="s">
+      <c r="D36" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="13"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="D37" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="13"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="13"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A39" s="28"/>
+      <c r="B39" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="13"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="13"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="13"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="13"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="10" t="s">
+      <c r="D43" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E43" s="13"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A44" s="28"/>
+      <c r="B44" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="C44" s="11"/>
+      <c r="D44" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="11" t="s">
+      <c r="E44" s="13"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A45" s="28"/>
+      <c r="B45" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="E45" s="13"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A46" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="B46" s="15" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
-      <c r="B34" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="11" t="s">
+      <c r="C46" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
+      <c r="D46" s="20"/>
+      <c r="E46" s="13"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A47" s="23"/>
+      <c r="B47" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="16" t="s">
+      <c r="C47" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="17"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="16" t="s">
+      <c r="D47" s="22"/>
+      <c r="E47" s="13"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="23"/>
+      <c r="B48" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="E37" s="17"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="35"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="15" t="s">
+      <c r="C48" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="E38" s="17"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="17"/>
-    </row>
-    <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="35"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="17"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E41" s="17"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A42" s="35"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" s="17"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="17"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="35"/>
-      <c r="B44" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E44" s="17"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A45" s="35"/>
-      <c r="B45" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E45" s="17"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A46" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="D46" s="26"/>
-      <c r="E46" s="17"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
-      <c r="B47" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" s="28"/>
-      <c r="E47" s="17"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
-      <c r="B48" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="D48" s="41"/>
-      <c r="E48" s="17"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="13"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="17"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -1542,5 +1674,6 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>